--- a/biology/Virologie/Virus_de_Tonate/Virus_de_Tonate.xlsx
+++ b/biology/Virologie/Virus_de_Tonate/Virus_de_Tonate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tonate virus
-Tonate virus (TONV) ou virus de Tonate est une espèce d'arbovirus de la famille des Togaviridae, dans le genre Alphavirus transmissible à l'humain par piqûre de moustique (Culex, Aedes)[3]. Il appartient au sous-type IIIb du complexe des virus de l'encéphalite équine vénézuélienne et a été décrit pour la première fois en 1973 en Guyane[4].
+Tonate virus (TONV) ou virus de Tonate est une espèce d'arbovirus de la famille des Togaviridae, dans le genre Alphavirus transmissible à l'humain par piqûre de moustique (Culex, Aedes). Il appartient au sous-type IIIb du complexe des virus de l'encéphalite équine vénézuélienne et a été décrit pour la première fois en 1973 en Guyane.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infection par le virus de Tonate entraine des symptômes typiques d'une infection à arbovirus : fièvre, frissons, maux de tête, douleurs musculaires et articulaires. Une étude pluriannuelle ne révèle aucun symptôme neurologique grave ni aucun décès chez 45 patients infectés par le TONV. Les deux premiers cas confirmées datent de 1973 et 1975[5].
-Le virus Tonate a une présentation clinicobiologique bénigne, peu spécifique et difficile à différencier de la dengue[4]. Toutefois, en 1998, un nourrisson de la région de l'Oyapock est décédé d'une encéphalite induite par le TONV[6].
-Deux études de séroprévalence en Guyane française ont montré respectivement que 14,3 et 11,9 % de la population avaient été exposés au virus[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infection par le virus de Tonate entraine des symptômes typiques d'une infection à arbovirus : fièvre, frissons, maux de tête, douleurs musculaires et articulaires. Une étude pluriannuelle ne révèle aucun symptôme neurologique grave ni aucun décès chez 45 patients infectés par le TONV. Les deux premiers cas confirmées datent de 1973 et 1975.
+Le virus Tonate a une présentation clinicobiologique bénigne, peu spécifique et difficile à différencier de la dengue. Toutefois, en 1998, un nourrisson de la région de l'Oyapock est décédé d'une encéphalite induite par le TONV.
+Deux études de séroprévalence en Guyane française ont montré respectivement que 14,3 et 11,9 % de la population avaient été exposés au virus.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Découverte et hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La première description de ce virus a été faite en janvier 1973 chez le Cassique huppé (Psarocolius decumanus), présente en Guyane française, à Tonate, un village situé une trentaine de kilomètres à l'ouest de Cayenne. Depuis, le virus a été détecté chez de nombreux autres organismes :
 Moustiques et phlébotomes : Anopheles, Coquillettidia, Culex, Mansonia, Uranotaenia, Wyeomyia, Lutzomyia…
@@ -578,7 +594,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Tonate-Virus » (voir la liste des auteurs).
 ↑ ICTV. International Committee on Taxonomy of Viruses. Taxonomy history. Published on the Internet https://talk.ictvonline.org/., consulté le 24 janvier 2021
@@ -615,7 +633,9 @@
           <t>Référence biologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence ICTV : Tonate virus  (consulté le 24 janvier 2021)
 (en) Référence NCBI : Tonate virus (taxons inclus) (consulté le 8 juillet 2022)
